--- a/data/filtered_only(3).xlsx
+++ b/data/filtered_only(3).xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Documents\Case 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\PycharmProjects\JupyterProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7B2F0E-CCB1-49DE-BC01-ABCA8CF9BE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD8ECD0-B63E-4497-8978-3D93AF2993F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BK$324</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2782,73 +2785,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA19" sqref="BA19"/>
+    <sheetView tabSelected="1" topLeftCell="BA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BC17" sqref="BC17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.6796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.2265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.04296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.31640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.76953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.58984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.04296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.76953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.31640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.58984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.04296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.58984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.2265625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="18.31640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.40625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="31.953125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.58984375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="255.58984375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.04296875" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="25.58984375" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="23.31640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="253.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="32" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="255.5546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="17" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="253.21875" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="24" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="23.6796875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="24" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="23.6796875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="23.31640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="23" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.2265625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3039,7 +3041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -3139,7 +3141,7 @@
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -3239,7 +3241,7 @@
       <c r="BJ3" s="1"/>
       <c r="BK3" s="1"/>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -3331,7 +3333,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -3423,7 +3425,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -3511,7 +3513,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -3603,7 +3605,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -3703,7 +3705,7 @@
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -3803,7 +3805,7 @@
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -3903,7 +3905,7 @@
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -4003,7 +4005,7 @@
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>98</v>
       </c>
@@ -4103,7 +4105,7 @@
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -4203,7 +4205,7 @@
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -4303,7 +4305,7 @@
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -4403,7 +4405,7 @@
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -4516,7 +4518,7 @@
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>138</v>
       </c>
@@ -4629,7 +4631,7 @@
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -4756,7 +4758,7 @@
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>158</v>
       </c>
@@ -4883,7 +4885,7 @@
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>159</v>
       </c>
@@ -4996,7 +4998,7 @@
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>164</v>
       </c>
@@ -5109,7 +5111,7 @@
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>167</v>
       </c>
@@ -5222,7 +5224,7 @@
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>168</v>
       </c>
@@ -5335,7 +5337,7 @@
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>170</v>
       </c>
@@ -5448,7 +5450,7 @@
       <c r="BJ24" s="1"/>
       <c r="BK24" s="1"/>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -5561,7 +5563,7 @@
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -5670,7 +5672,7 @@
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -5783,7 +5785,7 @@
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>178</v>
       </c>
@@ -5896,7 +5898,7 @@
       <c r="BJ28" s="1"/>
       <c r="BK28" s="1"/>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>179</v>
       </c>
@@ -6005,7 +6007,7 @@
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>180</v>
       </c>
@@ -6118,7 +6120,7 @@
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>182</v>
       </c>
@@ -6227,7 +6229,7 @@
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>183</v>
       </c>
@@ -6340,7 +6342,7 @@
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
     </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>184</v>
       </c>
@@ -6453,7 +6455,7 @@
       <c r="BJ33" s="1"/>
       <c r="BK33" s="1"/>
     </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>186</v>
       </c>
@@ -6566,7 +6568,7 @@
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
     </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -6702,7 +6704,7 @@
       </c>
       <c r="BK35" s="1"/>
     </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>195</v>
       </c>
@@ -6815,7 +6817,7 @@
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
     </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>199</v>
       </c>
@@ -6928,7 +6930,7 @@
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
     </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>200</v>
       </c>
@@ -7039,7 +7041,7 @@
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
     </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>205</v>
       </c>
@@ -7166,7 +7168,7 @@
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
     </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>209</v>
       </c>
@@ -7291,7 +7293,7 @@
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1"/>
     </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>212</v>
       </c>
@@ -7418,7 +7420,7 @@
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
     </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>214</v>
       </c>
@@ -7548,7 +7550,7 @@
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
     </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>216</v>
       </c>
@@ -7675,7 +7677,7 @@
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
     </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>218</v>
       </c>
@@ -7800,7 +7802,7 @@
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
     </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>220</v>
       </c>
@@ -7923,7 +7925,7 @@
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
     </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>223</v>
       </c>
@@ -8046,7 +8048,7 @@
       <c r="BJ46" s="1"/>
       <c r="BK46" s="1"/>
     </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -8171,7 +8173,7 @@
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1"/>
     </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>228</v>
       </c>
@@ -8296,7 +8298,7 @@
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
     </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>230</v>
       </c>
@@ -8444,7 +8446,7 @@
       </c>
       <c r="BK49" s="1"/>
     </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>233</v>
       </c>
@@ -8588,7 +8590,7 @@
       </c>
       <c r="BK50" s="1"/>
     </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>242</v>
       </c>
@@ -8724,7 +8726,7 @@
       <c r="BJ51" s="1"/>
       <c r="BK51" s="1"/>
     </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>249</v>
       </c>
@@ -8868,7 +8870,7 @@
       </c>
       <c r="BK52" s="1"/>
     </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>251</v>
       </c>
@@ -9004,7 +9006,7 @@
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
     </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>253</v>
       </c>
@@ -9152,7 +9154,7 @@
       </c>
       <c r="BK54" s="1"/>
     </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>255</v>
       </c>
@@ -9300,7 +9302,7 @@
       </c>
       <c r="BK55" s="1"/>
     </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>256</v>
       </c>
@@ -9413,7 +9415,7 @@
       <c r="BJ56" s="1"/>
       <c r="BK56" s="1"/>
     </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>261</v>
       </c>
@@ -9526,7 +9528,7 @@
       <c r="BJ57" s="1"/>
       <c r="BK57" s="1"/>
     </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -9639,7 +9641,7 @@
       <c r="BJ58" s="1"/>
       <c r="BK58" s="1"/>
     </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>265</v>
       </c>
@@ -9752,7 +9754,7 @@
       <c r="BJ59" s="1"/>
       <c r="BK59" s="1"/>
     </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>266</v>
       </c>
@@ -9868,7 +9870,7 @@
       <c r="BJ60" s="1"/>
       <c r="BK60" s="1"/>
     </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>269</v>
       </c>
@@ -9981,7 +9983,7 @@
       <c r="BJ61" s="1"/>
       <c r="BK61" s="1"/>
     </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>270</v>
       </c>
@@ -10094,7 +10096,7 @@
       <c r="BJ62" s="1"/>
       <c r="BK62" s="1"/>
     </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>272</v>
       </c>
@@ -10207,7 +10209,7 @@
       <c r="BJ63" s="1"/>
       <c r="BK63" s="1"/>
     </row>
-    <row r="64" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>274</v>
       </c>
@@ -10343,7 +10345,7 @@
       <c r="BJ64" s="1"/>
       <c r="BK64" s="1"/>
     </row>
-    <row r="65" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>278</v>
       </c>
@@ -10479,7 +10481,7 @@
       </c>
       <c r="BK65" s="1"/>
     </row>
-    <row r="66" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>279</v>
       </c>
@@ -10592,7 +10594,7 @@
       <c r="BJ66" s="1"/>
       <c r="BK66" s="1"/>
     </row>
-    <row r="67" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>281</v>
       </c>
@@ -10730,7 +10732,7 @@
       </c>
       <c r="BK67" s="1"/>
     </row>
-    <row r="68" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>284</v>
       </c>
@@ -10866,7 +10868,7 @@
       </c>
       <c r="BK68" s="1"/>
     </row>
-    <row r="69" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>285</v>
       </c>
@@ -10979,7 +10981,7 @@
       <c r="BJ69" s="1"/>
       <c r="BK69" s="1"/>
     </row>
-    <row r="70" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>286</v>
       </c>
@@ -11092,7 +11094,7 @@
       <c r="BJ70" s="1"/>
       <c r="BK70" s="1"/>
     </row>
-    <row r="71" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>288</v>
       </c>
@@ -11228,7 +11230,7 @@
       </c>
       <c r="BK71" s="1"/>
     </row>
-    <row r="72" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>289</v>
       </c>
@@ -11370,7 +11372,7 @@
       </c>
       <c r="BK72" s="1"/>
     </row>
-    <row r="73" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>293</v>
       </c>
@@ -11483,7 +11485,7 @@
       <c r="BJ73" s="1"/>
       <c r="BK73" s="1"/>
     </row>
-    <row r="74" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>294</v>
       </c>
@@ -11596,7 +11598,7 @@
       <c r="BJ74" s="1"/>
       <c r="BK74" s="1"/>
     </row>
-    <row r="75" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>298</v>
       </c>
@@ -11709,7 +11711,7 @@
       <c r="BJ75" s="1"/>
       <c r="BK75" s="1"/>
     </row>
-    <row r="76" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>299</v>
       </c>
@@ -11822,7 +11824,7 @@
       <c r="BJ76" s="1"/>
       <c r="BK76" s="1"/>
     </row>
-    <row r="77" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>300</v>
       </c>
@@ -11939,7 +11941,7 @@
       <c r="BJ77" s="1"/>
       <c r="BK77" s="1"/>
     </row>
-    <row r="78" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>302</v>
       </c>
@@ -12075,7 +12077,7 @@
       </c>
       <c r="BK78" s="1"/>
     </row>
-    <row r="79" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>307</v>
       </c>
@@ -12192,7 +12194,7 @@
       <c r="BJ79" s="1"/>
       <c r="BK79" s="1"/>
     </row>
-    <row r="80" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>309</v>
       </c>
@@ -12326,7 +12328,7 @@
       </c>
       <c r="BK80" s="1"/>
     </row>
-    <row r="81" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>310</v>
       </c>
@@ -12443,7 +12445,7 @@
       <c r="BJ81" s="1"/>
       <c r="BK81" s="1"/>
     </row>
-    <row r="82" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>311</v>
       </c>
@@ -12560,7 +12562,7 @@
       <c r="BJ82" s="1"/>
       <c r="BK82" s="1"/>
     </row>
-    <row r="83" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>312</v>
       </c>
@@ -12677,7 +12679,7 @@
       <c r="BJ83" s="1"/>
       <c r="BK83" s="1"/>
     </row>
-    <row r="84" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>313</v>
       </c>
@@ -12794,7 +12796,7 @@
       <c r="BJ84" s="1"/>
       <c r="BK84" s="1"/>
     </row>
-    <row r="85" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>315</v>
       </c>
@@ -12907,7 +12909,7 @@
       <c r="BJ85" s="1"/>
       <c r="BK85" s="1"/>
     </row>
-    <row r="86" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>318</v>
       </c>
@@ -13024,7 +13026,7 @@
       <c r="BJ86" s="1"/>
       <c r="BK86" s="1"/>
     </row>
-    <row r="87" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>321</v>
       </c>
@@ -13154,7 +13156,7 @@
       <c r="BJ87" s="1"/>
       <c r="BK87" s="1"/>
     </row>
-    <row r="88" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>326</v>
       </c>
@@ -13284,7 +13286,7 @@
       <c r="BJ88" s="1"/>
       <c r="BK88" s="1"/>
     </row>
-    <row r="89" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>329</v>
       </c>
@@ -13414,7 +13416,7 @@
       <c r="BJ89" s="1"/>
       <c r="BK89" s="1"/>
     </row>
-    <row r="90" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>332</v>
       </c>
@@ -13541,7 +13543,7 @@
       <c r="BJ90" s="1"/>
       <c r="BK90" s="1"/>
     </row>
-    <row r="91" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>334</v>
       </c>
@@ -13691,7 +13693,7 @@
       </c>
       <c r="BK91" s="1"/>
     </row>
-    <row r="92" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>335</v>
       </c>
@@ -13812,7 +13814,7 @@
       <c r="BJ92" s="1"/>
       <c r="BK92" s="1"/>
     </row>
-    <row r="93" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>337</v>
       </c>
@@ -13933,7 +13935,7 @@
       <c r="BJ93" s="1"/>
       <c r="BK93" s="1"/>
     </row>
-    <row r="94" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>339</v>
       </c>
@@ -14081,7 +14083,7 @@
       </c>
       <c r="BK94" s="1"/>
     </row>
-    <row r="95" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>340</v>
       </c>
@@ -14229,7 +14231,7 @@
       </c>
       <c r="BK95" s="1"/>
     </row>
-    <row r="96" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>341</v>
       </c>
@@ -14371,7 +14373,7 @@
       </c>
       <c r="BK96" s="1"/>
     </row>
-    <row r="97" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>342</v>
       </c>
@@ -14508,7 +14510,7 @@
       </c>
       <c r="BK97" s="1"/>
     </row>
-    <row r="98" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>344</v>
       </c>
@@ -14635,7 +14637,7 @@
       <c r="BJ98" s="1"/>
       <c r="BK98" s="1"/>
     </row>
-    <row r="99" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>348</v>
       </c>
@@ -14762,7 +14764,7 @@
       <c r="BJ99" s="1"/>
       <c r="BK99" s="1"/>
     </row>
-    <row r="100" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>350</v>
       </c>
@@ -14885,7 +14887,7 @@
       <c r="BJ100" s="1"/>
       <c r="BK100" s="1"/>
     </row>
-    <row r="101" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>351</v>
       </c>
@@ -15012,7 +15014,7 @@
       <c r="BJ101" s="1"/>
       <c r="BK101" s="1"/>
     </row>
-    <row r="102" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>353</v>
       </c>
@@ -15143,7 +15145,7 @@
       <c r="BJ102" s="1"/>
       <c r="BK102" s="1"/>
     </row>
-    <row r="103" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>356</v>
       </c>
@@ -15277,7 +15279,7 @@
       <c r="BJ103" s="1"/>
       <c r="BK103" s="1"/>
     </row>
-    <row r="104" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>359</v>
       </c>
@@ -15402,7 +15404,7 @@
       <c r="BJ104" s="1"/>
       <c r="BK104" s="1"/>
     </row>
-    <row r="105" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>361</v>
       </c>
@@ -15517,7 +15519,7 @@
       <c r="BJ105" s="1"/>
       <c r="BK105" s="1"/>
     </row>
-    <row r="106" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>370</v>
       </c>
@@ -15632,7 +15634,7 @@
       <c r="BJ106" s="1"/>
       <c r="BK106" s="1"/>
     </row>
-    <row r="107" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>372</v>
       </c>
@@ -15747,7 +15749,7 @@
       <c r="BJ107" s="1"/>
       <c r="BK107" s="1"/>
     </row>
-    <row r="108" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>373</v>
       </c>
@@ -15862,7 +15864,7 @@
       <c r="BJ108" s="1"/>
       <c r="BK108" s="1"/>
     </row>
-    <row r="109" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>374</v>
       </c>
@@ -15977,7 +15979,7 @@
       <c r="BJ109" s="1"/>
       <c r="BK109" s="1"/>
     </row>
-    <row r="110" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>376</v>
       </c>
@@ -16092,7 +16094,7 @@
       <c r="BJ110" s="1"/>
       <c r="BK110" s="1"/>
     </row>
-    <row r="111" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>377</v>
       </c>
@@ -16207,7 +16209,7 @@
       <c r="BJ111" s="1"/>
       <c r="BK111" s="1"/>
     </row>
-    <row r="112" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>379</v>
       </c>
@@ -16322,7 +16324,7 @@
       <c r="BJ112" s="1"/>
       <c r="BK112" s="1"/>
     </row>
-    <row r="113" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>380</v>
       </c>
@@ -16437,7 +16439,7 @@
       <c r="BJ113" s="1"/>
       <c r="BK113" s="1"/>
     </row>
-    <row r="114" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>381</v>
       </c>
@@ -16552,7 +16554,7 @@
       <c r="BJ114" s="1"/>
       <c r="BK114" s="1"/>
     </row>
-    <row r="115" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>382</v>
       </c>
@@ -16679,7 +16681,7 @@
       <c r="BJ115" s="1"/>
       <c r="BK115" s="1"/>
     </row>
-    <row r="116" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>392</v>
       </c>
@@ -16806,7 +16808,7 @@
       <c r="BJ116" s="1"/>
       <c r="BK116" s="1"/>
     </row>
-    <row r="117" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>395</v>
       </c>
@@ -16933,7 +16935,7 @@
       <c r="BJ117" s="1"/>
       <c r="BK117" s="1"/>
     </row>
-    <row r="118" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>398</v>
       </c>
@@ -17060,7 +17062,7 @@
       <c r="BJ118" s="1"/>
       <c r="BK118" s="1"/>
     </row>
-    <row r="119" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>400</v>
       </c>
@@ -17187,7 +17189,7 @@
       <c r="BJ119" s="1"/>
       <c r="BK119" s="1"/>
     </row>
-    <row r="120" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>401</v>
       </c>
@@ -17314,7 +17316,7 @@
       <c r="BJ120" s="1"/>
       <c r="BK120" s="1"/>
     </row>
-    <row r="121" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>402</v>
       </c>
@@ -17441,7 +17443,7 @@
       <c r="BJ121" s="1"/>
       <c r="BK121" s="1"/>
     </row>
-    <row r="122" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>404</v>
       </c>
@@ -17571,7 +17573,7 @@
       <c r="BJ122" s="1"/>
       <c r="BK122" s="1"/>
     </row>
-    <row r="123" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>410</v>
       </c>
@@ -17701,7 +17703,7 @@
       <c r="BJ123" s="1"/>
       <c r="BK123" s="1"/>
     </row>
-    <row r="124" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>413</v>
       </c>
@@ -17814,7 +17816,7 @@
       <c r="BJ124" s="1"/>
       <c r="BK124" s="1"/>
     </row>
-    <row r="125" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>417</v>
       </c>
@@ -17927,7 +17929,7 @@
       <c r="BJ125" s="1"/>
       <c r="BK125" s="1"/>
     </row>
-    <row r="126" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>419</v>
       </c>
@@ -18040,7 +18042,7 @@
       <c r="BJ126" s="1"/>
       <c r="BK126" s="1"/>
     </row>
-    <row r="127" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>420</v>
       </c>
@@ -18156,7 +18158,7 @@
       <c r="BJ127" s="1"/>
       <c r="BK127" s="1"/>
     </row>
-    <row r="128" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>423</v>
       </c>
@@ -18265,7 +18267,7 @@
       <c r="BJ128" s="1"/>
       <c r="BK128" s="1"/>
     </row>
-    <row r="129" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>425</v>
       </c>
@@ -18374,7 +18376,7 @@
       <c r="BJ129" s="1"/>
       <c r="BK129" s="1"/>
     </row>
-    <row r="130" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>426</v>
       </c>
@@ -18487,7 +18489,7 @@
       <c r="BJ130" s="1"/>
       <c r="BK130" s="1"/>
     </row>
-    <row r="131" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>427</v>
       </c>
@@ -18600,7 +18602,7 @@
       <c r="BJ131" s="1"/>
       <c r="BK131" s="1"/>
     </row>
-    <row r="132" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>429</v>
       </c>
@@ -18713,7 +18715,7 @@
       <c r="BJ132" s="1"/>
       <c r="BK132" s="1"/>
     </row>
-    <row r="133" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>430</v>
       </c>
@@ -18832,7 +18834,7 @@
       <c r="BJ133" s="1"/>
       <c r="BK133" s="1"/>
     </row>
-    <row r="134" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>432</v>
       </c>
@@ -18968,7 +18970,7 @@
       </c>
       <c r="BK134" s="1"/>
     </row>
-    <row r="135" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>433</v>
       </c>
@@ -19110,7 +19112,7 @@
       </c>
       <c r="BK135" s="1"/>
     </row>
-    <row r="136" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>434</v>
       </c>
@@ -19223,7 +19225,7 @@
       <c r="BJ136" s="1"/>
       <c r="BK136" s="1"/>
     </row>
-    <row r="137" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>435</v>
       </c>
@@ -19336,7 +19338,7 @@
       <c r="BJ137" s="1"/>
       <c r="BK137" s="1"/>
     </row>
-    <row r="138" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>437</v>
       </c>
@@ -19449,7 +19451,7 @@
       <c r="BJ138" s="1"/>
       <c r="BK138" s="1"/>
     </row>
-    <row r="139" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>439</v>
       </c>
@@ -19562,7 +19564,7 @@
       <c r="BJ139" s="1"/>
       <c r="BK139" s="1"/>
     </row>
-    <row r="140" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>440</v>
       </c>
@@ -19679,7 +19681,7 @@
       <c r="BJ140" s="1"/>
       <c r="BK140" s="1"/>
     </row>
-    <row r="141" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>442</v>
       </c>
@@ -19813,7 +19815,7 @@
       </c>
       <c r="BK141" s="1"/>
     </row>
-    <row r="142" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>443</v>
       </c>
@@ -19930,7 +19932,7 @@
       <c r="BJ142" s="1"/>
       <c r="BK142" s="1"/>
     </row>
-    <row r="143" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>444</v>
       </c>
@@ -20043,7 +20045,7 @@
       <c r="BJ143" s="1"/>
       <c r="BK143" s="1"/>
     </row>
-    <row r="144" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>445</v>
       </c>
@@ -20156,7 +20158,7 @@
       <c r="BJ144" s="1"/>
       <c r="BK144" s="1"/>
     </row>
-    <row r="145" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>446</v>
       </c>
@@ -20283,7 +20285,7 @@
       <c r="BJ145" s="1"/>
       <c r="BK145" s="1"/>
     </row>
-    <row r="146" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>447</v>
       </c>
@@ -20406,7 +20408,7 @@
       <c r="BJ146" s="1"/>
       <c r="BK146" s="1"/>
     </row>
-    <row r="147" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>449</v>
       </c>
@@ -20529,7 +20531,7 @@
       <c r="BJ147" s="1"/>
       <c r="BK147" s="1"/>
     </row>
-    <row r="148" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>450</v>
       </c>
@@ -20650,7 +20652,7 @@
       <c r="BJ148" s="1"/>
       <c r="BK148" s="1"/>
     </row>
-    <row r="149" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>452</v>
       </c>
@@ -20771,7 +20773,7 @@
       <c r="BJ149" s="1"/>
       <c r="BK149" s="1"/>
     </row>
-    <row r="150" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>454</v>
       </c>
@@ -20898,7 +20900,7 @@
       <c r="BJ150" s="1"/>
       <c r="BK150" s="1"/>
     </row>
-    <row r="151" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>456</v>
       </c>
@@ -21046,7 +21048,7 @@
       </c>
       <c r="BK151" s="1"/>
     </row>
-    <row r="152" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>457</v>
       </c>
@@ -21200,7 +21202,7 @@
       </c>
       <c r="BK152" s="1"/>
     </row>
-    <row r="153" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>458</v>
       </c>
@@ -21331,7 +21333,7 @@
       <c r="BJ153" s="1"/>
       <c r="BK153" s="1"/>
     </row>
-    <row r="154" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>462</v>
       </c>
@@ -21462,7 +21464,7 @@
       <c r="BJ154" s="1"/>
       <c r="BK154" s="1"/>
     </row>
-    <row r="155" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>463</v>
       </c>
@@ -21596,7 +21598,7 @@
       <c r="BJ155" s="1"/>
       <c r="BK155" s="1"/>
     </row>
-    <row r="156" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>468</v>
       </c>
@@ -21726,7 +21728,7 @@
       <c r="BJ156" s="1"/>
       <c r="BK156" s="1"/>
     </row>
-    <row r="157" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>471</v>
       </c>
@@ -21874,7 +21876,7 @@
       </c>
       <c r="BK157" s="1"/>
     </row>
-    <row r="158" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>472</v>
       </c>
@@ -21987,7 +21989,7 @@
       <c r="BJ158" s="1"/>
       <c r="BK158" s="1"/>
     </row>
-    <row r="159" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>476</v>
       </c>
@@ -22100,7 +22102,7 @@
       <c r="BJ159" s="1"/>
       <c r="BK159" s="1"/>
     </row>
-    <row r="160" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>478</v>
       </c>
@@ -22213,7 +22215,7 @@
       <c r="BJ160" s="1"/>
       <c r="BK160" s="1"/>
     </row>
-    <row r="161" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>479</v>
       </c>
@@ -22326,7 +22328,7 @@
       <c r="BJ161" s="1"/>
       <c r="BK161" s="1"/>
     </row>
-    <row r="162" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>481</v>
       </c>
@@ -22439,7 +22441,7 @@
       <c r="BJ162" s="1"/>
       <c r="BK162" s="1"/>
     </row>
-    <row r="163" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>482</v>
       </c>
@@ -22552,7 +22554,7 @@
       <c r="BJ163" s="1"/>
       <c r="BK163" s="1"/>
     </row>
-    <row r="164" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>484</v>
       </c>
@@ -22665,7 +22667,7 @@
       <c r="BJ164" s="1"/>
       <c r="BK164" s="1"/>
     </row>
-    <row r="165" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>485</v>
       </c>
@@ -22778,7 +22780,7 @@
       <c r="BJ165" s="1"/>
       <c r="BK165" s="1"/>
     </row>
-    <row r="166" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>487</v>
       </c>
@@ -22894,7 +22896,7 @@
       <c r="BJ166" s="1"/>
       <c r="BK166" s="1"/>
     </row>
-    <row r="167" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>489</v>
       </c>
@@ -23007,7 +23009,7 @@
       <c r="BJ167" s="1"/>
       <c r="BK167" s="1"/>
     </row>
-    <row r="168" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>491</v>
       </c>
@@ -23120,7 +23122,7 @@
       <c r="BJ168" s="1"/>
       <c r="BK168" s="1"/>
     </row>
-    <row r="169" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>492</v>
       </c>
@@ -23233,7 +23235,7 @@
       <c r="BJ169" s="1"/>
       <c r="BK169" s="1"/>
     </row>
-    <row r="170" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>494</v>
       </c>
@@ -23369,7 +23371,7 @@
       </c>
       <c r="BK170" s="1"/>
     </row>
-    <row r="171" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>495</v>
       </c>
@@ -23511,7 +23513,7 @@
       </c>
       <c r="BK171" s="1"/>
     </row>
-    <row r="172" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>496</v>
       </c>
@@ -23647,7 +23649,7 @@
       </c>
       <c r="BK172" s="1"/>
     </row>
-    <row r="173" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>497</v>
       </c>
@@ -23783,7 +23785,7 @@
       </c>
       <c r="BK173" s="1"/>
     </row>
-    <row r="174" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>498</v>
       </c>
@@ -23896,7 +23898,7 @@
       <c r="BJ174" s="1"/>
       <c r="BK174" s="1"/>
     </row>
-    <row r="175" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>499</v>
       </c>
@@ -24009,7 +24011,7 @@
       <c r="BJ175" s="1"/>
       <c r="BK175" s="1"/>
     </row>
-    <row r="176" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>501</v>
       </c>
@@ -24143,7 +24145,7 @@
       </c>
       <c r="BK176" s="1"/>
     </row>
-    <row r="177" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>503</v>
       </c>
@@ -24279,7 +24281,7 @@
       </c>
       <c r="BK177" s="1"/>
     </row>
-    <row r="178" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>504</v>
       </c>
@@ -24396,7 +24398,7 @@
       <c r="BJ178" s="1"/>
       <c r="BK178" s="1"/>
     </row>
-    <row r="179" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>506</v>
       </c>
@@ -24513,7 +24515,7 @@
       <c r="BJ179" s="1"/>
       <c r="BK179" s="1"/>
     </row>
-    <row r="180" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>508</v>
       </c>
@@ -24630,7 +24632,7 @@
       <c r="BJ180" s="1"/>
       <c r="BK180" s="1"/>
     </row>
-    <row r="181" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>509</v>
       </c>
@@ -24743,7 +24745,7 @@
       <c r="BJ181" s="1"/>
       <c r="BK181" s="1"/>
     </row>
-    <row r="182" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>511</v>
       </c>
@@ -24856,7 +24858,7 @@
       <c r="BJ182" s="1"/>
       <c r="BK182" s="1"/>
     </row>
-    <row r="183" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>512</v>
       </c>
@@ -24980,7 +24982,7 @@
       <c r="BJ183" s="1"/>
       <c r="BK183" s="1"/>
     </row>
-    <row r="184" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>515</v>
       </c>
@@ -25107,7 +25109,7 @@
       <c r="BJ184" s="1"/>
       <c r="BK184" s="1"/>
     </row>
-    <row r="185" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>518</v>
       </c>
@@ -25234,7 +25236,7 @@
       <c r="BJ185" s="1"/>
       <c r="BK185" s="1"/>
     </row>
-    <row r="186" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>520</v>
       </c>
@@ -25355,7 +25357,7 @@
       <c r="BJ186" s="1"/>
       <c r="BK186" s="1"/>
     </row>
-    <row r="187" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>522</v>
       </c>
@@ -25487,7 +25489,7 @@
       <c r="BJ187" s="1"/>
       <c r="BK187" s="1"/>
     </row>
-    <row r="188" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>524</v>
       </c>
@@ -25635,7 +25637,7 @@
       </c>
       <c r="BK188" s="1"/>
     </row>
-    <row r="189" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>525</v>
       </c>
@@ -25770,7 +25772,7 @@
       </c>
       <c r="BK189" s="1"/>
     </row>
-    <row r="190" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>526</v>
       </c>
@@ -25897,7 +25899,7 @@
       <c r="BJ190" s="1"/>
       <c r="BK190" s="1"/>
     </row>
-    <row r="191" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>530</v>
       </c>
@@ -26024,7 +26026,7 @@
       <c r="BJ191" s="1"/>
       <c r="BK191" s="1"/>
     </row>
-    <row r="192" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>532</v>
       </c>
@@ -26155,7 +26157,7 @@
       <c r="BJ192" s="1"/>
       <c r="BK192" s="1"/>
     </row>
-    <row r="193" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>534</v>
       </c>
@@ -26280,7 +26282,7 @@
       <c r="BJ193" s="1"/>
       <c r="BK193" s="1"/>
     </row>
-    <row r="194" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>536</v>
       </c>
@@ -26411,7 +26413,7 @@
       <c r="BJ194" s="1"/>
       <c r="BK194" s="1"/>
     </row>
-    <row r="195" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>538</v>
       </c>
@@ -26538,7 +26540,7 @@
       <c r="BJ195" s="1"/>
       <c r="BK195" s="1"/>
     </row>
-    <row r="196" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>539</v>
       </c>
@@ -26658,7 +26660,7 @@
       <c r="BJ196" s="1"/>
       <c r="BK196" s="1"/>
     </row>
-    <row r="197" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>546</v>
       </c>
@@ -26778,7 +26780,7 @@
       <c r="BJ197" s="1"/>
       <c r="BK197" s="1"/>
     </row>
-    <row r="198" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>550</v>
       </c>
@@ -26889,7 +26891,7 @@
       <c r="BJ198" s="1"/>
       <c r="BK198" s="1"/>
     </row>
-    <row r="199" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>552</v>
       </c>
@@ -27002,7 +27004,7 @@
       <c r="BJ199" s="1"/>
       <c r="BK199" s="1"/>
     </row>
-    <row r="200" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>553</v>
       </c>
@@ -27117,7 +27119,7 @@
       <c r="BJ200" s="1"/>
       <c r="BK200" s="1"/>
     </row>
-    <row r="201" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>554</v>
       </c>
@@ -27234,7 +27236,7 @@
       <c r="BJ201" s="1"/>
       <c r="BK201" s="1"/>
     </row>
-    <row r="202" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>556</v>
       </c>
@@ -27354,7 +27356,7 @@
       <c r="BJ202" s="1"/>
       <c r="BK202" s="1"/>
     </row>
-    <row r="203" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>558</v>
       </c>
@@ -27488,7 +27490,7 @@
       <c r="BJ203" s="1"/>
       <c r="BK203" s="1"/>
     </row>
-    <row r="204" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>562</v>
       </c>
@@ -27628,7 +27630,7 @@
       </c>
       <c r="BK204" s="1"/>
     </row>
-    <row r="205" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>563</v>
       </c>
@@ -27772,7 +27774,7 @@
       </c>
       <c r="BK205" s="1"/>
     </row>
-    <row r="206" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>564</v>
       </c>
@@ -27910,7 +27912,7 @@
       </c>
       <c r="BK206" s="1"/>
     </row>
-    <row r="207" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>565</v>
       </c>
@@ -28048,7 +28050,7 @@
       </c>
       <c r="BK207" s="1"/>
     </row>
-    <row r="208" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>566</v>
       </c>
@@ -28192,7 +28194,7 @@
       </c>
       <c r="BK208" s="1"/>
     </row>
-    <row r="209" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>568</v>
       </c>
@@ -28330,7 +28332,7 @@
       </c>
       <c r="BK209" s="1"/>
     </row>
-    <row r="210" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>569</v>
       </c>
@@ -28447,7 +28449,7 @@
       <c r="BJ210" s="1"/>
       <c r="BK210" s="1"/>
     </row>
-    <row r="211" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>570</v>
       </c>
@@ -28568,7 +28570,7 @@
       <c r="BJ211" s="1"/>
       <c r="BK211" s="1"/>
     </row>
-    <row r="212" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>572</v>
       </c>
@@ -28689,7 +28691,7 @@
       <c r="BJ212" s="1"/>
       <c r="BK212" s="1"/>
     </row>
-    <row r="213" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>574</v>
       </c>
@@ -28810,7 +28812,7 @@
       <c r="BJ213" s="1"/>
       <c r="BK213" s="1"/>
     </row>
-    <row r="214" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>576</v>
       </c>
@@ -28931,7 +28933,7 @@
       <c r="BJ214" s="1"/>
       <c r="BK214" s="1"/>
     </row>
-    <row r="215" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>577</v>
       </c>
@@ -29052,7 +29054,7 @@
       <c r="BJ215" s="1"/>
       <c r="BK215" s="1"/>
     </row>
-    <row r="216" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>578</v>
       </c>
@@ -29194,7 +29196,7 @@
       </c>
       <c r="BK216" s="1"/>
     </row>
-    <row r="217" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>579</v>
       </c>
@@ -29318,7 +29320,7 @@
       <c r="BJ217" s="1"/>
       <c r="BK217" s="1"/>
     </row>
-    <row r="218" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>581</v>
       </c>
@@ -29435,7 +29437,7 @@
       <c r="BJ218" s="1"/>
       <c r="BK218" s="1"/>
     </row>
-    <row r="219" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>582</v>
       </c>
@@ -29552,7 +29554,7 @@
       <c r="BJ219" s="1"/>
       <c r="BK219" s="1"/>
     </row>
-    <row r="220" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>583</v>
       </c>
@@ -29669,7 +29671,7 @@
       <c r="BJ220" s="1"/>
       <c r="BK220" s="1"/>
     </row>
-    <row r="221" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>584</v>
       </c>
@@ -29805,7 +29807,7 @@
       <c r="BJ221" s="1"/>
       <c r="BK221" s="1"/>
     </row>
-    <row r="222" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>586</v>
       </c>
@@ -29918,7 +29920,7 @@
       <c r="BJ222" s="1"/>
       <c r="BK222" s="1"/>
     </row>
-    <row r="223" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>589</v>
       </c>
@@ -30031,7 +30033,7 @@
       <c r="BJ223" s="1"/>
       <c r="BK223" s="1"/>
     </row>
-    <row r="224" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>591</v>
       </c>
@@ -30144,7 +30146,7 @@
       <c r="BJ224" s="1"/>
       <c r="BK224" s="1"/>
     </row>
-    <row r="225" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>593</v>
       </c>
@@ -30257,7 +30259,7 @@
       <c r="BJ225" s="1"/>
       <c r="BK225" s="1"/>
     </row>
-    <row r="226" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>594</v>
       </c>
@@ -30370,7 +30372,7 @@
       <c r="BJ226" s="1"/>
       <c r="BK226" s="1"/>
     </row>
-    <row r="227" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>595</v>
       </c>
@@ -30483,7 +30485,7 @@
       <c r="BJ227" s="1"/>
       <c r="BK227" s="1"/>
     </row>
-    <row r="228" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>597</v>
       </c>
@@ -30608,7 +30610,7 @@
       <c r="BJ228" s="1"/>
       <c r="BK228" s="1"/>
     </row>
-    <row r="229" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>599</v>
       </c>
@@ -30733,7 +30735,7 @@
       <c r="BJ229" s="1"/>
       <c r="BK229" s="1"/>
     </row>
-    <row r="230" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>601</v>
       </c>
@@ -30860,7 +30862,7 @@
       <c r="BJ230" s="1"/>
       <c r="BK230" s="1"/>
     </row>
-    <row r="231" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>603</v>
       </c>
@@ -30987,7 +30989,7 @@
       <c r="BJ231" s="1"/>
       <c r="BK231" s="1"/>
     </row>
-    <row r="232" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>604</v>
       </c>
@@ -31114,7 +31116,7 @@
       <c r="BJ232" s="1"/>
       <c r="BK232" s="1"/>
     </row>
-    <row r="233" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>605</v>
       </c>
@@ -31254,7 +31256,7 @@
       <c r="BJ233" s="1"/>
       <c r="BK233" s="1"/>
     </row>
-    <row r="234" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>607</v>
       </c>
@@ -31398,7 +31400,7 @@
       </c>
       <c r="BK234" s="1"/>
     </row>
-    <row r="235" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>608</v>
       </c>
@@ -31534,7 +31536,7 @@
       <c r="BJ235" s="1"/>
       <c r="BK235" s="1"/>
     </row>
-    <row r="236" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>609</v>
       </c>
@@ -31678,7 +31680,7 @@
       </c>
       <c r="BK236" s="1"/>
     </row>
-    <row r="237" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>610</v>
       </c>
@@ -31826,7 +31828,7 @@
       </c>
       <c r="BK237" s="1"/>
     </row>
-    <row r="238" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>611</v>
       </c>
@@ -31974,7 +31976,7 @@
       </c>
       <c r="BK238" s="1"/>
     </row>
-    <row r="239" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>612</v>
       </c>
@@ -32101,7 +32103,7 @@
       <c r="BJ239" s="1"/>
       <c r="BK239" s="1"/>
     </row>
-    <row r="240" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>618</v>
       </c>
@@ -32228,7 +32230,7 @@
       <c r="BJ240" s="1"/>
       <c r="BK240" s="1"/>
     </row>
-    <row r="241" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>620</v>
       </c>
@@ -32355,7 +32357,7 @@
       <c r="BJ241" s="1"/>
       <c r="BK241" s="1"/>
     </row>
-    <row r="242" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>623</v>
       </c>
@@ -32482,7 +32484,7 @@
       <c r="BJ242" s="1"/>
       <c r="BK242" s="1"/>
     </row>
-    <row r="243" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>625</v>
       </c>
@@ -32609,7 +32611,7 @@
       <c r="BJ243" s="1"/>
       <c r="BK243" s="1"/>
     </row>
-    <row r="244" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>628</v>
       </c>
@@ -32736,7 +32738,7 @@
       <c r="BJ244" s="1"/>
       <c r="BK244" s="1"/>
     </row>
-    <row r="245" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>629</v>
       </c>
@@ -32863,7 +32865,7 @@
       <c r="BJ245" s="1"/>
       <c r="BK245" s="1"/>
     </row>
-    <row r="246" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>630</v>
       </c>
@@ -32990,7 +32992,7 @@
       <c r="BJ246" s="1"/>
       <c r="BK246" s="1"/>
     </row>
-    <row r="247" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>631</v>
       </c>
@@ -33117,7 +33119,7 @@
       <c r="BJ247" s="1"/>
       <c r="BK247" s="1"/>
     </row>
-    <row r="248" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>632</v>
       </c>
@@ -33232,7 +33234,7 @@
       <c r="BJ248" s="1"/>
       <c r="BK248" s="1"/>
     </row>
-    <row r="249" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>637</v>
       </c>
@@ -33347,7 +33349,7 @@
       <c r="BJ249" s="1"/>
       <c r="BK249" s="1"/>
     </row>
-    <row r="250" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>639</v>
       </c>
@@ -33462,7 +33464,7 @@
       <c r="BJ250" s="1"/>
       <c r="BK250" s="1"/>
     </row>
-    <row r="251" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>640</v>
       </c>
@@ -33577,7 +33579,7 @@
       <c r="BJ251" s="1"/>
       <c r="BK251" s="1"/>
     </row>
-    <row r="252" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>642</v>
       </c>
@@ -33692,7 +33694,7 @@
       <c r="BJ252" s="1"/>
       <c r="BK252" s="1"/>
     </row>
-    <row r="253" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>644</v>
       </c>
@@ -33807,7 +33809,7 @@
       <c r="BJ253" s="1"/>
       <c r="BK253" s="1"/>
     </row>
-    <row r="254" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>647</v>
       </c>
@@ -33922,7 +33924,7 @@
       <c r="BJ254" s="1"/>
       <c r="BK254" s="1"/>
     </row>
-    <row r="255" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>648</v>
       </c>
@@ -34037,7 +34039,7 @@
       <c r="BJ255" s="1"/>
       <c r="BK255" s="1"/>
     </row>
-    <row r="256" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>649</v>
       </c>
@@ -34152,7 +34154,7 @@
       <c r="BJ256" s="1"/>
       <c r="BK256" s="1"/>
     </row>
-    <row r="257" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>650</v>
       </c>
@@ -34267,7 +34269,7 @@
       <c r="BJ257" s="1"/>
       <c r="BK257" s="1"/>
     </row>
-    <row r="258" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>651</v>
       </c>
@@ -34382,7 +34384,7 @@
       <c r="BJ258" s="1"/>
       <c r="BK258" s="1"/>
     </row>
-    <row r="259" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>652</v>
       </c>
@@ -34497,7 +34499,7 @@
       <c r="BJ259" s="1"/>
       <c r="BK259" s="1"/>
     </row>
-    <row r="260" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>653</v>
       </c>
@@ -34612,7 +34614,7 @@
       <c r="BJ260" s="1"/>
       <c r="BK260" s="1"/>
     </row>
-    <row r="261" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>656</v>
       </c>
@@ -34727,7 +34729,7 @@
       <c r="BJ261" s="1"/>
       <c r="BK261" s="1"/>
     </row>
-    <row r="262" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>657</v>
       </c>
@@ -34840,7 +34842,7 @@
       <c r="BJ262" s="1"/>
       <c r="BK262" s="1"/>
     </row>
-    <row r="263" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>658</v>
       </c>
@@ -34955,7 +34957,7 @@
       <c r="BJ263" s="1"/>
       <c r="BK263" s="1"/>
     </row>
-    <row r="264" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>659</v>
       </c>
@@ -35068,7 +35070,7 @@
       <c r="BJ264" s="1"/>
       <c r="BK264" s="1"/>
     </row>
-    <row r="265" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>663</v>
       </c>
@@ -35195,7 +35197,7 @@
       <c r="BJ265" s="1"/>
       <c r="BK265" s="1"/>
     </row>
-    <row r="266" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>667</v>
       </c>
@@ -35322,7 +35324,7 @@
       <c r="BJ266" s="1"/>
       <c r="BK266" s="1"/>
     </row>
-    <row r="267" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>668</v>
       </c>
@@ -35449,7 +35451,7 @@
       <c r="BJ267" s="1"/>
       <c r="BK267" s="1"/>
     </row>
-    <row r="268" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>670</v>
       </c>
@@ -35578,7 +35580,7 @@
       <c r="BJ268" s="1"/>
       <c r="BK268" s="1"/>
     </row>
-    <row r="269" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>672</v>
       </c>
@@ -35705,7 +35707,7 @@
       <c r="BJ269" s="1"/>
       <c r="BK269" s="1"/>
     </row>
-    <row r="270" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>673</v>
       </c>
@@ -35832,7 +35834,7 @@
       <c r="BJ270" s="1"/>
       <c r="BK270" s="1"/>
     </row>
-    <row r="271" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>676</v>
       </c>
@@ -35959,7 +35961,7 @@
       <c r="BJ271" s="1"/>
       <c r="BK271" s="1"/>
     </row>
-    <row r="272" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>677</v>
       </c>
@@ -36086,7 +36088,7 @@
       <c r="BJ272" s="1"/>
       <c r="BK272" s="1"/>
     </row>
-    <row r="273" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>678</v>
       </c>
@@ -36201,7 +36203,7 @@
       <c r="BJ273" s="1"/>
       <c r="BK273" s="1"/>
     </row>
-    <row r="274" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>682</v>
       </c>
@@ -36316,7 +36318,7 @@
       <c r="BJ274" s="1"/>
       <c r="BK274" s="1"/>
     </row>
-    <row r="275" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>684</v>
       </c>
@@ -36431,7 +36433,7 @@
       <c r="BJ275" s="1"/>
       <c r="BK275" s="1"/>
     </row>
-    <row r="276" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>686</v>
       </c>
@@ -36546,7 +36548,7 @@
       <c r="BJ276" s="1"/>
       <c r="BK276" s="1"/>
     </row>
-    <row r="277" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>687</v>
       </c>
@@ -36661,7 +36663,7 @@
       <c r="BJ277" s="1"/>
       <c r="BK277" s="1"/>
     </row>
-    <row r="278" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>688</v>
       </c>
@@ -36776,7 +36778,7 @@
       <c r="BJ278" s="1"/>
       <c r="BK278" s="1"/>
     </row>
-    <row r="279" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>690</v>
       </c>
@@ -36891,7 +36893,7 @@
       <c r="BJ279" s="1"/>
       <c r="BK279" s="1"/>
     </row>
-    <row r="280" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>691</v>
       </c>
@@ -37006,7 +37008,7 @@
       <c r="BJ280" s="1"/>
       <c r="BK280" s="1"/>
     </row>
-    <row r="281" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>692</v>
       </c>
@@ -37119,7 +37121,7 @@
       <c r="BJ281" s="1"/>
       <c r="BK281" s="1"/>
     </row>
-    <row r="282" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>696</v>
       </c>
@@ -37232,7 +37234,7 @@
       <c r="BJ282" s="1"/>
       <c r="BK282" s="1"/>
     </row>
-    <row r="283" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>698</v>
       </c>
@@ -37345,7 +37347,7 @@
       <c r="BJ283" s="1"/>
       <c r="BK283" s="1"/>
     </row>
-    <row r="284" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>699</v>
       </c>
@@ -37458,7 +37460,7 @@
       <c r="BJ284" s="1"/>
       <c r="BK284" s="1"/>
     </row>
-    <row r="285" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>700</v>
       </c>
@@ -37585,7 +37587,7 @@
       <c r="BJ285" s="1"/>
       <c r="BK285" s="1"/>
     </row>
-    <row r="286" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>704</v>
       </c>
@@ -37712,7 +37714,7 @@
       <c r="BJ286" s="1"/>
       <c r="BK286" s="1"/>
     </row>
-    <row r="287" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>708</v>
       </c>
@@ -37839,7 +37841,7 @@
       <c r="BJ287" s="1"/>
       <c r="BK287" s="1"/>
     </row>
-    <row r="288" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>710</v>
       </c>
@@ -37964,7 +37966,7 @@
       <c r="BJ288" s="1"/>
       <c r="BK288" s="1"/>
     </row>
-    <row r="289" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>712</v>
       </c>
@@ -38091,7 +38093,7 @@
       <c r="BJ289" s="1"/>
       <c r="BK289" s="1"/>
     </row>
-    <row r="290" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>714</v>
       </c>
@@ -38208,7 +38210,7 @@
       <c r="BJ290" s="1"/>
       <c r="BK290" s="1"/>
     </row>
-    <row r="291" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>718</v>
       </c>
@@ -38328,7 +38330,7 @@
       <c r="BJ291" s="1"/>
       <c r="BK291" s="1"/>
     </row>
-    <row r="292" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>721</v>
       </c>
@@ -38448,7 +38450,7 @@
       <c r="BJ292" s="1"/>
       <c r="BK292" s="1"/>
     </row>
-    <row r="293" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>723</v>
       </c>
@@ -38582,7 +38584,7 @@
       <c r="BJ293" s="1"/>
       <c r="BK293" s="1"/>
     </row>
-    <row r="294" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>724</v>
       </c>
@@ -38699,7 +38701,7 @@
       <c r="BJ294" s="1"/>
       <c r="BK294" s="1"/>
     </row>
-    <row r="295" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>725</v>
       </c>
@@ -38833,7 +38835,7 @@
       <c r="BJ295" s="1"/>
       <c r="BK295" s="1"/>
     </row>
-    <row r="296" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>729</v>
       </c>
@@ -38954,7 +38956,7 @@
       <c r="BJ296" s="1"/>
       <c r="BK296" s="1"/>
     </row>
-    <row r="297" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>730</v>
       </c>
@@ -39069,7 +39071,7 @@
       <c r="BJ297" s="1"/>
       <c r="BK297" s="1"/>
     </row>
-    <row r="298" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>732</v>
       </c>
@@ -39182,7 +39184,7 @@
       <c r="BJ298" s="1"/>
       <c r="BK298" s="1"/>
     </row>
-    <row r="299" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>736</v>
       </c>
@@ -39295,7 +39297,7 @@
       <c r="BJ299" s="1"/>
       <c r="BK299" s="1"/>
     </row>
-    <row r="300" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>738</v>
       </c>
@@ -39422,7 +39424,7 @@
       <c r="BJ300" s="1"/>
       <c r="BK300" s="1"/>
     </row>
-    <row r="301" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>742</v>
       </c>
@@ -39549,7 +39551,7 @@
       <c r="BJ301" s="1"/>
       <c r="BK301" s="1"/>
     </row>
-    <row r="302" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>744</v>
       </c>
@@ -39676,7 +39678,7 @@
       <c r="BJ302" s="1"/>
       <c r="BK302" s="1"/>
     </row>
-    <row r="303" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>745</v>
       </c>
@@ -39810,7 +39812,7 @@
       <c r="BJ303" s="1"/>
       <c r="BK303" s="1"/>
     </row>
-    <row r="304" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>747</v>
       </c>
@@ -39944,7 +39946,7 @@
       <c r="BJ304" s="1"/>
       <c r="BK304" s="1"/>
     </row>
-    <row r="305" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>748</v>
       </c>
@@ -40080,7 +40082,7 @@
       <c r="BJ305" s="1"/>
       <c r="BK305" s="1"/>
     </row>
-    <row r="306" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>750</v>
       </c>
@@ -40216,7 +40218,7 @@
       <c r="BJ306" s="1"/>
       <c r="BK306" s="1"/>
     </row>
-    <row r="307" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>751</v>
       </c>
@@ -40350,7 +40352,7 @@
       <c r="BJ307" s="1"/>
       <c r="BK307" s="1"/>
     </row>
-    <row r="308" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>753</v>
       </c>
@@ -40484,7 +40486,7 @@
       <c r="BJ308" s="1"/>
       <c r="BK308" s="1"/>
     </row>
-    <row r="309" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>754</v>
       </c>
@@ -40618,7 +40620,7 @@
       <c r="BJ309" s="1"/>
       <c r="BK309" s="1"/>
     </row>
-    <row r="310" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>755</v>
       </c>
@@ -40733,7 +40735,7 @@
       <c r="BJ310" s="1"/>
       <c r="BK310" s="1"/>
     </row>
-    <row r="311" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>757</v>
       </c>
@@ -40850,7 +40852,7 @@
       <c r="BJ311" s="1"/>
       <c r="BK311" s="1"/>
     </row>
-    <row r="312" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>764</v>
       </c>
@@ -40981,7 +40983,7 @@
       <c r="BJ312" s="1"/>
       <c r="BK312" s="1"/>
     </row>
-    <row r="313" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>767</v>
       </c>
@@ -41096,7 +41098,7 @@
       <c r="BJ313" s="1"/>
       <c r="BK313" s="1"/>
     </row>
-    <row r="314" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>771</v>
       </c>
@@ -41211,7 +41213,7 @@
       <c r="BJ314" s="1"/>
       <c r="BK314" s="1"/>
     </row>
-    <row r="315" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>773</v>
       </c>
@@ -41326,7 +41328,7 @@
       <c r="BJ315" s="1"/>
       <c r="BK315" s="1"/>
     </row>
-    <row r="316" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>774</v>
       </c>
@@ -41439,7 +41441,7 @@
       <c r="BJ316" s="1"/>
       <c r="BK316" s="1"/>
     </row>
-    <row r="317" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>775</v>
       </c>
@@ -41556,7 +41558,7 @@
       <c r="BJ317" s="1"/>
       <c r="BK317" s="1"/>
     </row>
-    <row r="318" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>779</v>
       </c>
@@ -41687,7 +41689,7 @@
       <c r="BJ318" s="1"/>
       <c r="BK318" s="1"/>
     </row>
-    <row r="319" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>780</v>
       </c>
@@ -41800,7 +41802,7 @@
       <c r="BJ319" s="1"/>
       <c r="BK319" s="1"/>
     </row>
-    <row r="320" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>782</v>
       </c>
@@ -41917,7 +41919,7 @@
       <c r="BJ320" s="1"/>
       <c r="BK320" s="1"/>
     </row>
-    <row r="321" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>785</v>
       </c>
@@ -42032,7 +42034,7 @@
       <c r="BJ321" s="1"/>
       <c r="BK321" s="1"/>
     </row>
-    <row r="322" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>786</v>
       </c>
@@ -42145,7 +42147,7 @@
       <c r="BJ322" s="1"/>
       <c r="BK322" s="1"/>
     </row>
-    <row r="323" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>789</v>
       </c>
@@ -42260,7 +42262,7 @@
       <c r="BJ323" s="1"/>
       <c r="BK323" s="1"/>
     </row>
-    <row r="324" spans="1:63" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>791</v>
       </c>
@@ -42392,6 +42394,7 @@
       <c r="BK324" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BK324" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="AD16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
